--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="index" sheetId="1" state="visible" r:id="rId3"/>
@@ -2766,34 +2766,34 @@
   </si>
   <si>
     <t xml:space="preserve">まだベッドを作っていないなら
-「瞑想」のアビリティを使うことで眠ることもできるわ。
+「休憩」のアビリティを使うことで眠ることもできるわ。
 ベッドで眠るより効果はおちるけどね。</t>
   </si>
   <si>
     <t xml:space="preserve">If you haven't made a bed yet,
-you can use the "Meditation" ability to sleep.
+you can use the "Rest" ability to sleep.
 It's not as effective as sleeping in a bed, though.</t>
   </si>
   <si>
     <t xml:space="preserve">아직 침대를 만들지 않았다면
-「명상」 어빌리티를 사용하는 걸로 잘 수도 있어.
+「휴식」 어빌리티를 사용하는 걸로 잘 수도 있어.
 침대에서 자는 것보다 효과는 떨어지지만.</t>
   </si>
   <si>
-    <t xml:space="preserve">瞑想中は体力や魔力の自然回復量も上がるから
-戦いの後は瞑想で休憩するのもありね。
+    <t xml:space="preserve">休憩中は体力や魔力の自然回復量も上がるから
+戦いの後は休憩するのもありね。
 ただ、過労や飢餓状態の時は
 自然回復自体止まってしまうから気を付けて。</t>
   </si>
   <si>
-    <t xml:space="preserve">During meditation, your natural recovery of health and magic power increases,
-so it's good to rest through meditation after a battle.
+    <t xml:space="preserve">When resting, your natural recovery of health and magic power increases,
+so it's good to rest after a battle.
 Just be careful, because if you're overworked or starving,
 natural recovery stops altogether.</t>
   </si>
   <si>
-    <t xml:space="preserve">명상 중에는 체력이나 마력이 자연회복되는 양이 늘어나니까
-전투 후에 명상으로 휴식하는 방법도 있어.
+    <t xml:space="preserve">휴식 중에는 체력이나 마력이 자연회복되는 양이 늘어나니까
+전투가 끝나고 휴식을 하는 것도 괜찮아.
 하지만, 과로나 기아상태일 때는
 자연회복 자체가 멈춰버리니까 조심해.</t>
   </si>
@@ -3410,10 +3410,10 @@
   </sheetPr>
   <dimension ref="A1:O37"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
+      <selection pane="bottomLeft" activeCell="F31" activeCellId="0" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4284,10 +4284,10 @@
   </sheetPr>
   <dimension ref="A1:K348"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="A156" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="J149" activeCellId="0" sqref="J149"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="A307" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="K311" activeCellId="0" sqref="K311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
+++ b/DIFF_PREVIOUS/Mod_Korean/Lang/KR/Dialog/Drama/_tutorial.xlsx
@@ -1145,7 +1145,7 @@
   </si>
   <si>
     <t xml:space="preserve">With this policy, trash will mostly disappear.
-However, since it lowers the public morale,
+However, since it lowers the public morality,
 you'll eventually want to switch to a better waste management solution.</t>
   </si>
   <si>
@@ -1155,7 +1155,7 @@
   </si>
   <si>
     <t xml:space="preserve">Putting up garbage dump signs and placing garbage containers
-will encourage residents to dispose of trash according to the public morale.</t>
+will encourage residents to dispose of trash according to the public morality.</t>
   </si>
   <si>
     <t xml:space="preserve">それに、掃除をしてくれる住民がいれば
@@ -4426,10 +4426,10 @@
   </sheetPr>
   <dimension ref="A1:K360"/>
   <sheetViews>
-    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K359" sqref="K359"/>
-      <selection pane="bottomLeft" activeCell="A39" sqref="A39"/>
+      <selection pane="bottomLeft" activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.0546875" defaultRowHeight="12.8"/>
